--- a/00_長孔資料/2024年1月11日長孔加工プログラム(XY反転用).xlsx
+++ b/00_長孔資料/2024年1月11日長孔加工プログラム(XY反転用).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a44ef2ff30a9bf4/00_23webclamp/00羽生市倉庫/00SendTReceive/2024年1月11日栄輪工業打合せ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keita\Documents\git\00WCSTemplate\00_長孔資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{CCCBB785-2E23-46C2-8C73-D9142A29A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F81CBF-8BA9-4930-A962-37D8E50C6F5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15CA7F-55A8-4D8A-8B97-6D0706FE5887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>G00X-4Y0</t>
+    <t>G00X4Y0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +248,19 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -340,10 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -457,7 +470,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
+        <a:xfrm rot="16200000">
           <a:off x="6900247" y="1370536"/>
           <a:ext cx="4340509" cy="3115908"/>
         </a:xfrm>
@@ -737,7 +750,7 @@
   <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1019,8 +1032,8 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15" t="str">
-        <f>"G01X"&amp;$E$4/-2+4&amp;"Y0.0"</f>
-        <v>G01X-71Y0.0</v>
+        <f>"G01X"&amp;$E$4/2-4&amp;"Y0.0"</f>
+        <v>G01X71Y0.0</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1037,8 +1050,8 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="15" t="str">
-        <f>"G01X"&amp;$E$4&amp;"Y0"</f>
-        <v>G01X150Y0</v>
+        <f>"G01X"&amp;$E$4*-1&amp;"Y0"</f>
+        <v>G01X-150Y0</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
@@ -1054,16 +1067,16 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="16" t="str">
-        <f>"G01X"&amp;$E$4*-1&amp;"Y0"</f>
-        <v>G01X-150Y0</v>
+      <c r="B14" s="15" t="str">
+        <f>"G01X"&amp;$E$4&amp;"Y0"</f>
+        <v>G01X150Y0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="16" t="str">
+      <c r="B15" s="15" t="str">
         <f>"G03X0Y"&amp;$E$3-2&amp;"I0J"&amp;$E$3/2-1</f>
         <v>G03X0Y17.5I0J8.75</v>
       </c>
